--- a/csv/ldaqda/ldaqda_pc25_perfs.xlsx
+++ b/csv/ldaqda/ldaqda_pc25_perfs.xlsx
@@ -114,16 +114,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.12962962962962962</v>
+        <v>0.13425925925925924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07790994062208381</v>
+        <v>0.06897992789699695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5601851851851852</v>
+        <v>0.5324074074074074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05391083936299868</v>
+        <v>0.10155681172737971</v>
       </c>
     </row>
   </sheetData>
@@ -165,13 +165,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -180,7 +180,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -200,10 +200,10 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -217,13 +217,13 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -243,10 +243,10 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -263,13 +263,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -337,7 +337,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -346,13 +346,13 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
@@ -363,10 +363,10 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
@@ -375,7 +375,7 @@
         <v>2.0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -383,22 +383,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,22 +406,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
         <v>3.0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -429,22 +429,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
@@ -452,22 +452,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G7" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>

--- a/csv/ldaqda/ldaqda_pc25_perfs.xlsx
+++ b/csv/ldaqda/ldaqda_pc25_perfs.xlsx
@@ -117,13 +117,13 @@
         <v>0.13425925925925924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06897992789699695</v>
+        <v>0.06190560981646955</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5324074074074074</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.10155681172737971</v>
+        <v>0.13350683156331017</v>
       </c>
     </row>
   </sheetData>
@@ -165,13 +165,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -180,7 +180,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -246,10 +246,10 @@
         <v>34.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -263,13 +263,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -280,7 +280,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -295,7 +295,7 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -337,7 +337,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -346,13 +346,13 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="3">
@@ -360,22 +360,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -383,22 +383,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>3.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F4" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,22 +406,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -429,22 +429,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="F6" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -452,22 +452,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
         <v>3.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>4.0</v>
-      </c>
       <c r="G7" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>

--- a/csv/ldaqda/ldaqda_pc25_perfs.xlsx
+++ b/csv/ldaqda/ldaqda_pc25_perfs.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+  <si>
+    <t>filename</t>
+  </si>
   <si>
     <t>lda_tst_err</t>
   </si>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>pc25</t>
   </si>
   <si>
     <t>2</t>
@@ -108,22 +114,28 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.13425925925925924</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06190560981646955</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.037951669503554074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.13350683156331017</v>
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.039283710065919325</v>
       </c>
     </row>
   </sheetData>
@@ -142,30 +154,30 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -180,18 +192,18 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -200,7 +212,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
@@ -208,7 +220,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -217,21 +229,21 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -240,21 +252,21 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -263,13 +275,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -277,7 +289,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
@@ -314,111 +326,111 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="E4" t="n">
         <v>3.0</v>
       </c>
       <c r="F4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>7.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" t="n">
         <v>2.0</v>
@@ -426,48 +438,48 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F6" t="n">
         <v>11.0</v>
       </c>
-      <c r="F6" t="n">
-        <v>13.0</v>
-      </c>
       <c r="G6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
